--- a/docs/templateFile/ImportFractionTemplate.xlsx
+++ b/docs/templateFile/ImportFractionTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -33,9 +33,6 @@
     <t>fraction</t>
   </si>
   <si>
-    <t>stu3</t>
-  </si>
-  <si>
     <t>计算机网络</t>
   </si>
   <si>
@@ -47,9 +44,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -61,28 +58,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -99,12 +74,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -120,25 +164,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,54 +180,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,25 +211,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,31 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,31 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,85 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,29 +407,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,6 +430,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -463,6 +475,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,30 +502,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,145 +510,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,17 +1036,17 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>20164841</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>100</v>

--- a/docs/templateFile/ImportFractionTemplate.xlsx
+++ b/docs/templateFile/ImportFractionTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -38,6 +38,15 @@
   <si>
     <t>考勤</t>
   </si>
+  <si>
+    <t>实验</t>
+  </si>
+  <si>
+    <t>课后作业</t>
+  </si>
+  <si>
+    <t>期末考试分数</t>
+  </si>
 </sst>
 </file>
 
@@ -58,6 +67,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -73,15 +147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,28 +157,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,7 +173,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,9 +181,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,53 +205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,19 +220,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,163 +382,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +417,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -415,16 +433,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,39 +473,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -502,6 +487,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -510,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -522,133 +531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,13 +1013,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="21.125" customWidth="1"/>
@@ -1037,7 +1046,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20164841</v>
+        <v>20164944</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1046,10 +1055,231 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>20164944</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>20164944</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>20164944</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>20164944</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>20164944</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>20164944</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>20164944</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>20164944</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>20164944</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>20164944</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>20164944</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>20164944</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>20164944</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/docs/templateFile/ImportFractionTemplate.xlsx
+++ b/docs/templateFile/ImportFractionTemplate.xlsx
@@ -53,9 +53,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -68,14 +68,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,20 +83,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -117,7 +96,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -147,6 +125,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -171,9 +157,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +202,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -220,37 +220,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,145 +388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,15 +411,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,6 +438,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -464,26 +466,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +496,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,133 +531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20164944</v>
+        <v>20164942</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20164944</v>
+        <v>20164942</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20164944</v>
+        <v>20164942</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20164944</v>
+        <v>20164942</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20164944</v>
+        <v>20164942</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20164944</v>
+        <v>20164942</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20164944</v>
+        <v>20164942</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20164944</v>
+        <v>20164942</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20164944</v>
+        <v>20164942</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20164944</v>
+        <v>20164942</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20164944</v>
+        <v>20164942</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20164944</v>
+        <v>20164942</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20164944</v>
+        <v>20164942</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20164944</v>
+        <v>20164942</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
